--- a/biology/Botanique/Salix_serpyllifolia/Salix_serpyllifolia.xlsx
+++ b/biology/Botanique/Salix_serpyllifolia/Salix_serpyllifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Salix serpyllifolia, le Saule à feuilles de serpolet, est une espèce végétale de la famille des Salicaceae. 
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un des petits saules d’altitude rencontré dans les Alpes, habitué des conditions extrêmes. Ses feuilles, très petites, sont lisses et rétrécies à la base. Les fleurs sont minuscules, de couleur jaune. Il pousse souvent en compagnie de Salix herbacea, Salix reticulata et Salix retusa.
-La taille de la plante varie de 5 à 30 cm. La longueur des chatons va de 2 à 7 mm. La floraison a lieu de juin à juillet, à une altitude comprise entre 1 200 et 3 000 mètres[1].
+La taille de la plante varie de 5 à 30 cm. La longueur des chatons va de 2 à 7 mm. La floraison a lieu de juin à juillet, à une altitude comprise entre 1 200 et 3 000 mètres.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Répartition et environnement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Il s'agit d'une plante d'altitude qui peut être observée en France continentale, en Italie, en Europe centrale et en Slovénie[2]. Elle apprécie les endroits ensoleillés et les sols frais et humides[2]. Elle se développe tant sur des sols de terre que rocailleux. Le saule à feuille de serpolet peut résister à des températures allant jusqu'à -45°C.[3]
+Il s'agit d'une plante d'altitude qui peut être observée en France continentale, en Italie, en Europe centrale et en Slovénie. Elle apprécie les endroits ensoleillés et les sols frais et humides. Elle se développe tant sur des sols de terre que rocailleux. Le saule à feuille de serpolet peut résister à des températures allant jusqu'à -45°C.
 Sur les autres projets Wikimedia :
 Salix serpyllifolia, sur Wikimedia CommonsSalix serpyllifolia, sur Wikispecies
 </t>
